--- a/src/test/resources/testData/batch14excel.xlsx
+++ b/src/test/resources/testData/batch14excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij IDEA\CucumberBatch14\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>photograpgh</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>nomal111</t>
   </si>
   <si>
-    <t>Synatx123!</t>
-  </si>
-  <si>
     <t>reela111</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>C:\Users\talha\Desktop\newImage.jpg</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>Syntax123!</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,85 +426,85 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/batch14excel.xlsx
+++ b/src/test/resources/testData/batch14excel.xlsx
@@ -44,33 +44,15 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>tuaha</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
     <t>askar</t>
   </si>
   <si>
-    <t>nomal111</t>
-  </si>
-  <si>
-    <t>reela111</t>
-  </si>
-  <si>
-    <t>natia111</t>
-  </si>
-  <si>
-    <t>khokar</t>
-  </si>
-  <si>
     <t>nadto</t>
   </si>
   <si>
-    <t>zahiba</t>
-  </si>
-  <si>
     <t>camila</t>
   </si>
   <si>
@@ -81,6 +63,24 @@
   </si>
   <si>
     <t>Syntax123!</t>
+  </si>
+  <si>
+    <t>zazaza</t>
+  </si>
+  <si>
+    <t>sasasa</t>
+  </si>
+  <si>
+    <t>atat111</t>
+  </si>
+  <si>
+    <t>atatat</t>
+  </si>
+  <si>
+    <t>zaza111</t>
+  </si>
+  <si>
+    <t>sasa111</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -440,48 +440,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -489,22 +489,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
